--- a/INPUTS/inputs_frame1C_grid16.xlsx
+++ b/INPUTS/inputs_frame1C_grid16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\STANFORD\1_RESEARCH\WSMF_model_generator\INPUTS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thorntontomasetti-my.sharepoint.com/personal/fgalvis_thorntontomasetti_com/Documents/Documents/GitHub/ModelerWSMF/INPUTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67802400-EE02-46B4-BAF6-7771EB38B93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{67802400-EE02-46B4-BAF6-7771EB38B93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{921E490F-179C-4804-AF8A-E8FD50580601}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15600" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basics" sheetId="2" r:id="rId1"/>
@@ -328,18 +328,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -357,7 +351,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -674,22 +668,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.109375" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="5" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -775,10 +769,10 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -836,13 +830,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="10" width="5.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="10" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -886,13 +880,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="11" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -934,12 +928,12 @@
         <v>65</v>
       </c>
       <c r="B4">
-        <f>1.1*(45+0.25*25)</f>
-        <v>56.375000000000007</v>
+        <f>1.1*(45+0.25*40)</f>
+        <v>60.500000000000007</v>
       </c>
       <c r="C4">
-        <f>1.1*(45+0.25*25)</f>
-        <v>56.375000000000007</v>
+        <f>1.1*(45+0.25*40)</f>
+        <v>60.500000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -951,14 +945,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -974,7 +968,7 @@
         <v>69</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -982,7 +976,7 @@
         <v>70</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -990,7 +984,7 @@
         <v>71</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1003,20 +997,20 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E4"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1053,11 +1047,11 @@
         <v>84</v>
       </c>
       <c r="B2" s="2">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <f>7/8</f>
-        <v>0.875</v>
+        <v>12</v>
+      </c>
+      <c r="C2" s="2">
+        <f>1+1/8</f>
+        <v>1.125</v>
       </c>
       <c r="D2" s="2">
         <v>0.5</v>
@@ -1072,8 +1066,8 @@
         <v>2</v>
       </c>
       <c r="H2">
-        <f>F2*(B2-1)+2*G2</f>
-        <v>28</v>
+        <f>F2*(B2-1)+2</f>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
         <v>82</v>
@@ -1086,8 +1080,9 @@
       <c r="B3" s="2">
         <v>9</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" s="2">
+        <f>1+1/8</f>
+        <v>1.125</v>
       </c>
       <c r="D3" s="2">
         <v>0.5</v>
@@ -1102,8 +1097,8 @@
         <v>2</v>
       </c>
       <c r="H3">
-        <f>F3*(B3-1)+2*G3</f>
-        <v>28</v>
+        <f t="shared" ref="H3:H4" si="0">F3*(B3-1)+2</f>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
         <v>82</v>
@@ -1116,7 +1111,7 @@
       <c r="B4" s="2">
         <v>6</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="2">
@@ -1132,8 +1127,8 @@
         <v>2</v>
       </c>
       <c r="H4">
-        <f>F4*(B4-1)+2*G4</f>
-        <v>19</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="I4" t="s">
         <v>82</v>
@@ -1152,10 +1147,10 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1188,10 +1183,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1242,10 +1237,10 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="10" width="9" customWidth="1"/>
     <col min="11" max="11" width="8" customWidth="1"/>
   </cols>
@@ -1305,11 +1300,11 @@
       <selection activeCell="D1" sqref="D1:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="10" width="5.88671875" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1366,11 +1361,11 @@
       <selection activeCell="B4" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="6.33203125" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1413,11 +1408,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="10" width="5.88671875" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" customWidth="1"/>
+    <col min="2" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1468,17 +1463,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="10" width="5.88671875" customWidth="1"/>
-    <col min="11" max="11" width="6.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7.7109375" customWidth="1"/>
+    <col min="2" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1494,10 +1489,12 @@
         <v>39</v>
       </c>
       <c r="B2" s="2">
-        <v>0</v>
+        <f>2+3/4</f>
+        <v>2.75</v>
       </c>
       <c r="C2" s="2">
-        <v>0</v>
+        <f>2+3/4</f>
+        <v>2.75</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1505,10 +1502,12 @@
         <v>40</v>
       </c>
       <c r="B3" s="2">
-        <v>0</v>
+        <f>1+3/4</f>
+        <v>1.75</v>
       </c>
       <c r="C3" s="2">
-        <v>0</v>
+        <f>1+3/4</f>
+        <v>1.75</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1521,6 +1520,10 @@
       <c r="C4" s="2">
         <v>0</v>
       </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1535,12 +1538,12 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.88671875" customWidth="1"/>
-    <col min="2" max="2" width="8.44140625" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/INPUTS/inputs_frame1C_grid16.xlsx
+++ b/INPUTS/inputs_frame1C_grid16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thorntontomasetti-my.sharepoint.com/personal/fgalvis_thorntontomasetti_com/Documents/Documents/GitHub/ModelerWSMF/INPUTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{67802400-EE02-46B4-BAF6-7771EB38B93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{921E490F-179C-4804-AF8A-E8FD50580601}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{67802400-EE02-46B4-BAF6-7771EB38B93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF795C93-50EC-4BC3-B5B4-FB81D687EFD1}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="0" windowWidth="29040" windowHeight="15600" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basics" sheetId="2" r:id="rId1"/>
@@ -766,7 +766,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -792,7 +792,7 @@
         <v>53</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>58</v>
@@ -803,7 +803,7 @@
         <v>54</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -814,7 +814,7 @@
         <v>55</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>58</v>
@@ -830,13 +830,14 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="10" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="5.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -849,8 +850,8 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <f>1.1*(1.6+1.6*0.25)</f>
-        <v>2.2000000000000002</v>
+        <f>1.1*(1.6+1.6*0.25)*30*12</f>
+        <v>792</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -858,8 +859,8 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <f>1.1*(1.6+1*0.25)</f>
-        <v>2.0350000000000001</v>
+        <f>1.1*(1.6+1*0.25)*30*12</f>
+        <v>732.6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1535,7 +1536,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1565,7 +1566,7 @@
         <v>45</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
         <v>50</v>
@@ -1579,7 +1580,7 @@
         <v>46</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
@@ -1593,7 +1594,7 @@
         <v>47</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>50</v>

--- a/INPUTS/inputs_frame1C_grid16.xlsx
+++ b/INPUTS/inputs_frame1C_grid16.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thorntontomasetti-my.sharepoint.com/personal/fgalvis_thorntontomasetti_com/Documents/Documents/GitHub/ModelerWSMF/INPUTS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{67802400-EE02-46B4-BAF6-7771EB38B93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF795C93-50EC-4BC3-B5B4-FB81D687EFD1}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{67802400-EE02-46B4-BAF6-7771EB38B93F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEC53A52-DF41-4F85-91D7-3220A134400F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="basics" sheetId="2" r:id="rId1"/>
@@ -829,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -850,8 +850,8 @@
         <v>59</v>
       </c>
       <c r="B2">
-        <f>1.1*(1.6+1.6*0.25)*30*12</f>
-        <v>792</v>
+        <f>1.1*(1.6+1.6*0.25)*30</f>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -859,8 +859,8 @@
         <v>60</v>
       </c>
       <c r="B3">
-        <f>1.1*(1.6+1*0.25)*30*12</f>
-        <v>732.6</v>
+        <f>1.1*(1.6+1*0.25)*30</f>
+        <v>61.050000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -881,7 +881,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -929,12 +929,12 @@
         <v>65</v>
       </c>
       <c r="B4">
-        <f>1.1*(45+0.25*40)</f>
-        <v>60.500000000000007</v>
+        <f>1.1*(45+0.25*25)</f>
+        <v>56.375000000000007</v>
       </c>
       <c r="C4">
-        <f>1.1*(45+0.25*40)</f>
-        <v>60.500000000000007</v>
+        <f>1.1*(45+0.25*25)</f>
+        <v>56.375000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -946,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:A26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -969,7 +969,8 @@
         <v>69</v>
       </c>
       <c r="B2" s="2">
-        <v>1100</v>
+        <f>1100-wgtOnBeam!B2-SUM(wgtOnCol!B2:C2)</f>
+        <v>919.6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -977,7 +978,8 @@
         <v>70</v>
       </c>
       <c r="B3" s="2">
-        <v>1600</v>
+        <f>1600-wgtOnBeam!B3-SUM(wgtOnCol!B3:C3)</f>
+        <v>1382.2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -985,7 +987,8 @@
         <v>71</v>
       </c>
       <c r="B4" s="2">
-        <v>300</v>
+        <f>300-wgtOnBeam!B4-SUM(wgtOnCol!B4:C4)</f>
+        <v>187.25</v>
       </c>
     </row>
   </sheetData>
